--- a/P&E/clase03x2.xlsx
+++ b/P&E/clase03x2.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\AP5\P&amp;E\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C130980-F939-456E-B363-BABCB3386B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5360E855-E956-4CA1-A27E-6C493C1B437A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12210" yWindow="0" windowWidth="8190" windowHeight="10920" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Video1" sheetId="1" r:id="rId1"/>
     <sheet name="Video2" sheetId="2" r:id="rId2"/>
+    <sheet name="Video3" sheetId="3" r:id="rId3"/>
+    <sheet name="Video4" sheetId="4" r:id="rId4"/>
+    <sheet name="Video5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -59,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
   <si>
     <t>Cuartiles</t>
   </si>
@@ -140,6 +143,114 @@
   </si>
   <si>
     <t>D7</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>Faa</t>
+  </si>
+  <si>
+    <t>← posición</t>
+  </si>
+  <si>
+    <t>Entonces:</t>
+  </si>
+  <si>
+    <t>← no estoy de acuerdo</t>
+  </si>
+  <si>
+    <t>Con XML:</t>
+  </si>
+  <si>
+    <t>Q1 =</t>
+  </si>
+  <si>
+    <t>← vaya... no me lo esperaba...</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D6 =</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P5 = </t>
+  </si>
+  <si>
+    <t>Edad</t>
+  </si>
+  <si>
+    <t>30-35</t>
+  </si>
+  <si>
+    <t>35-40</t>
+  </si>
+  <si>
+    <t>40-45</t>
+  </si>
+  <si>
+    <t>45-50</t>
+  </si>
+  <si>
+    <t>50-55</t>
+  </si>
+  <si>
+    <t>55-60</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>F(i-1) =</t>
+  </si>
+  <si>
+    <t>Fi =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Li = </t>
+  </si>
+  <si>
+    <t>A = Ls - Li =</t>
+  </si>
+  <si>
+    <t>Aplicando fórmula:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D2 = </t>
+  </si>
+  <si>
+    <t>P55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P55 = </t>
+  </si>
+  <si>
+    <t>00-10</t>
+  </si>
+  <si>
+    <t>20-30</t>
+  </si>
+  <si>
+    <t>30-40</t>
+  </si>
+  <si>
+    <t>40-50</t>
+  </si>
+  <si>
+    <t>50-60</t>
+  </si>
+  <si>
+    <t>10/-/20</t>
+  </si>
+  <si>
+    <t>Q3 (posición)</t>
   </si>
 </sst>
 </file>
@@ -306,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -327,11 +438,35 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -364,8 +499,8 @@
       <xdr:rowOff>500062</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1936877" cy="642612"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -407,6 +542,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -495,7 +631,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -571,8 +707,8 @@
       <xdr:rowOff>500062</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1139927" cy="640560"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CuadroTexto 2">
@@ -614,6 +750,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -684,7 +821,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CuadroTexto 2">
@@ -755,11 +892,995 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>80961</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3152775" cy="921214"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="CuadroTexto 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC56422C-4E18-A68E-0B11-41C134BFF807}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="28574" y="2176461"/>
+              <a:ext cx="3152775" cy="921214"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ax-AR" sz="2200" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐷</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑘</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐿</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐴</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:f>
+                              <m:fPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:fPr>
+                              <m:num>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑘𝑛</m:t>
+                                </m:r>
+                              </m:num>
+                              <m:den>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>10</m:t>
+                                </m:r>
+                              </m:den>
+                            </m:f>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝐹</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑖</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>−1</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                          </m:num>
+                          <m:den>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝐹</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑖</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝐹</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑖</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>−1</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                          </m:den>
+                        </m:f>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ax-AR" sz="2200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="CuadroTexto 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC56422C-4E18-A68E-0B11-41C134BFF807}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="28574" y="2176461"/>
+              <a:ext cx="3152775" cy="921214"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐷</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ax-AR" sz="2200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑘=𝐿_𝑖+𝐴(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(𝑘𝑛/10−𝐹_(𝑖−1))/(𝐹_𝑖−𝐹_(𝑖−1) )</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:endParaRPr lang="ax-AR" sz="2200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>71436</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3152775" cy="921214"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="CuadroTexto 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{365CEBE0-36B8-492A-B710-2378803D9F59}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2809874" y="71436"/>
+              <a:ext cx="3152775" cy="921214"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ax-AR" sz="2200" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑄</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑘</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐿</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐴</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:f>
+                              <m:fPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:fPr>
+                              <m:num>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑘𝑛</m:t>
+                                </m:r>
+                              </m:num>
+                              <m:den>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>4</m:t>
+                                </m:r>
+                              </m:den>
+                            </m:f>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝐹</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑖</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>−1</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                          </m:num>
+                          <m:den>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝐹</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑖</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝐹</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑖</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>−1</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                          </m:den>
+                        </m:f>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ax-AR" sz="2200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="CuadroTexto 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{365CEBE0-36B8-492A-B710-2378803D9F59}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2809874" y="71436"/>
+              <a:ext cx="3152775" cy="921214"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑄</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ax-AR" sz="2200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑘=𝐿_𝑖+𝐴(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(𝑘𝑛/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>4</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>−𝐹_(𝑖−1))/(𝐹_𝑖−𝐹_(𝑖−1) )</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:endParaRPr lang="ax-AR" sz="2200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BDF26A71-13B2-48A6-B711-028F9DE8064B}" name="Tabla1" displayName="Tabla1" ref="A6:B17" totalsRowShown="0">
   <autoFilter ref="A6:B17" xr:uid="{BDF26A71-13B2-48A6-B711-028F9DE8064B}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3001B58F-3649-4EDB-94E2-6F4F2277A798}" name="Posición" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{3001B58F-3649-4EDB-94E2-6F4F2277A798}" name="Posición" dataDxfId="5">
       <calculatedColumnFormula array="1">ROW(1:1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{18FC44E8-12D0-4AA2-B715-6F6B4FFFE1B9}" name="Dato"/>
@@ -772,7 +1893,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{44DE03B1-2B4D-48D8-A92E-7D1BC8A0CB34}" name="Tabla13" displayName="Tabla13" ref="J6:K16" totalsRowShown="0">
   <autoFilter ref="J6:K16" xr:uid="{44DE03B1-2B4D-48D8-A92E-7D1BC8A0CB34}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{2A907E48-D5AC-47A5-9BFE-B93C1BF078FF}" name="Posición" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{2A907E48-D5AC-47A5-9BFE-B93C1BF078FF}" name="Posición" dataDxfId="4">
       <calculatedColumnFormula array="1">ROW(1:1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{D70EFEE6-0F91-45B9-A46A-433702605273}" name="Dato"/>
@@ -785,11 +1906,51 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9AF3BF80-1A74-43BE-8B2D-D4740916047E}" name="Tabla3" displayName="Tabla3" ref="A20:C34" totalsRowCount="1">
   <autoFilter ref="A20:C33" xr:uid="{9AF3BF80-1A74-43BE-8B2D-D4740916047E}"/>
   <tableColumns count="3">
-    <tableColumn id="3" xr3:uid="{2135DEA9-60E3-4DA4-8DC6-28E7F93B193F}" name="Posición" totalsRowLabel="Total" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{2135DEA9-60E3-4DA4-8DC6-28E7F93B193F}" name="Posición" totalsRowLabel="Total" dataDxfId="3">
       <calculatedColumnFormula array="1">ROW(1:1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="1" xr3:uid="{BC4241F9-61C2-4B72-800B-880755159283}" name="Peso" totalsRowFunction="count"/>
     <tableColumn id="2" xr3:uid="{AFA0ED85-4F07-4BF2-96F4-E2F673CA6074}" name="Respuestas" totalsRowFunction="count"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DBD0EA3D-3B4E-49EE-8B39-4FF5BA8BD6F9}" name="Tabla4" displayName="Tabla4" ref="A1:C9" totalsRowCount="1">
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{0D770518-D342-4775-AAF0-88ABA0C1AC2F}" name="x" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{2AF3709F-FD51-4112-8EF6-A5094092B804}" name="f" totalsRowFunction="sum"/>
+    <tableColumn id="3" xr3:uid="{CB54103B-C6BD-4730-BFFB-75B50A1E88A1}" name="Faa" dataDxfId="2">
+      <calculatedColumnFormula>SUM(INDEX(Tabla4[f],1):Tabla4[[#This Row],[f]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{92BA3900-53C8-40EF-AB3B-FB650D1CCA33}" name="Tabla5" displayName="Tabla5" ref="A1:C8" totalsRowCount="1">
+  <autoFilter ref="A1:C7" xr:uid="{92BA3900-53C8-40EF-AB3B-FB650D1CCA33}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{7CDCD907-8D3C-4218-B13D-4290F6EBDD5E}" name="Edad" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{701EB13E-C8A4-4AB4-AEA6-8DC8EF716E8B}" name="f" totalsRowFunction="sum"/>
+    <tableColumn id="3" xr3:uid="{03614A16-2CEF-4732-8613-E753271D8B9A}" name="Faa" dataDxfId="1">
+      <calculatedColumnFormula>SUM(INDEX(Tabla5[f],1):Tabla5[[#This Row],[f]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7EFB1FBC-FFE5-43EE-84B1-B69DD3EF2024}" name="Tabla57" displayName="Tabla57" ref="A1:C8" totalsRowCount="1">
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{E77DCD78-9B59-41DC-A36C-A54F4580D9FB}" name="Respuestas" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{40153907-FE8F-4A57-9451-40281F6BED4C}" name="f" totalsRowFunction="sum"/>
+    <tableColumn id="3" xr3:uid="{6A4E1C3A-7BF0-436A-9D86-534ED1B4C6AC}" name="Faa" dataDxfId="0">
+      <calculatedColumnFormula>SUM(INDEX(Tabla57[f],1):Tabla57[[#This Row],[f]])</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1060,7 +2221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView topLeftCell="C14" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -1638,7 +2799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A24BDA-4B31-4930-A1BC-14AA6B17AE69}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -1841,4 +3002,949 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210A6868-0364-462A-81C7-17C44D0E67C9}">
+  <dimension ref="A1:G61"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="6" width="3.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <f>SUM(INDEX(Tabla4[f],1):Tabla4[[#This Row],[f]])</f>
+        <v>3</v>
+      </c>
+      <c r="E2" cm="1">
+        <f t="array" ref="E2:E61">_xlfn.FILTERXML("&lt;lista&gt;"&amp;G10&amp;"&lt;/lista&gt;","//valor")</f>
+        <v>13</v>
+      </c>
+      <c r="G2" t="str">
+        <f>REPT("&lt;valor&gt;"&amp;Tabla4[[#This Row],[x]]&amp;"&lt;/valor&gt;",Tabla4[[#This Row],[f]])</f>
+        <v>&lt;valor&gt;13&lt;/valor&gt;&lt;valor&gt;13&lt;/valor&gt;&lt;valor&gt;13&lt;/valor&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <f>SUM(INDEX(Tabla4[f],1):Tabla4[[#This Row],[f]])</f>
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>13</v>
+      </c>
+      <c r="G3" t="str">
+        <f>REPT("&lt;valor&gt;"&amp;Tabla4[[#This Row],[x]]&amp;"&lt;/valor&gt;",Tabla4[[#This Row],[f]])</f>
+        <v>&lt;valor&gt;14&lt;/valor&gt;&lt;valor&gt;14&lt;/valor&gt;&lt;valor&gt;14&lt;/valor&gt;&lt;valor&gt;14&lt;/valor&gt;&lt;valor&gt;14&lt;/valor&gt;&lt;valor&gt;14&lt;/valor&gt;&lt;valor&gt;14&lt;/valor&gt;&lt;valor&gt;14&lt;/valor&gt;&lt;valor&gt;14&lt;/valor&gt;&lt;valor&gt;14&lt;/valor&gt;&lt;valor&gt;14&lt;/valor&gt;&lt;valor&gt;14&lt;/valor&gt;&lt;valor&gt;14&lt;/valor&gt;&lt;valor&gt;14&lt;/valor&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>23</v>
+      </c>
+      <c r="C4">
+        <f>SUM(INDEX(Tabla4[f],1):Tabla4[[#This Row],[f]])</f>
+        <v>40</v>
+      </c>
+      <c r="E4">
+        <v>13</v>
+      </c>
+      <c r="G4" t="str">
+        <f>REPT("&lt;valor&gt;"&amp;Tabla4[[#This Row],[x]]&amp;"&lt;/valor&gt;",Tabla4[[#This Row],[f]])</f>
+        <v>&lt;valor&gt;15&lt;/valor&gt;&lt;valor&gt;15&lt;/valor&gt;&lt;valor&gt;15&lt;/valor&gt;&lt;valor&gt;15&lt;/valor&gt;&lt;valor&gt;15&lt;/valor&gt;&lt;valor&gt;15&lt;/valor&gt;&lt;valor&gt;15&lt;/valor&gt;&lt;valor&gt;15&lt;/valor&gt;&lt;valor&gt;15&lt;/valor&gt;&lt;valor&gt;15&lt;/valor&gt;&lt;valor&gt;15&lt;/valor&gt;&lt;valor&gt;15&lt;/valor&gt;&lt;valor&gt;15&lt;/valor&gt;&lt;valor&gt;15&lt;/valor&gt;&lt;valor&gt;15&lt;/valor&gt;&lt;valor&gt;15&lt;/valor&gt;&lt;valor&gt;15&lt;/valor&gt;&lt;valor&gt;15&lt;/valor&gt;&lt;valor&gt;15&lt;/valor&gt;&lt;valor&gt;15&lt;/valor&gt;&lt;valor&gt;15&lt;/valor&gt;&lt;valor&gt;15&lt;/valor&gt;&lt;valor&gt;15&lt;/valor&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <f>SUM(INDEX(Tabla4[f],1):Tabla4[[#This Row],[f]])</f>
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <v>14</v>
+      </c>
+      <c r="G5" t="str">
+        <f>REPT("&lt;valor&gt;"&amp;Tabla4[[#This Row],[x]]&amp;"&lt;/valor&gt;",Tabla4[[#This Row],[f]])</f>
+        <v>&lt;valor&gt;16&lt;/valor&gt;&lt;valor&gt;16&lt;/valor&gt;&lt;valor&gt;16&lt;/valor&gt;&lt;valor&gt;16&lt;/valor&gt;&lt;valor&gt;16&lt;/valor&gt;&lt;valor&gt;16&lt;/valor&gt;&lt;valor&gt;16&lt;/valor&gt;&lt;valor&gt;16&lt;/valor&gt;&lt;valor&gt;16&lt;/valor&gt;&lt;valor&gt;16&lt;/valor&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <f>SUM(INDEX(Tabla4[f],1):Tabla4[[#This Row],[f]])</f>
+        <v>55</v>
+      </c>
+      <c r="E6">
+        <v>14</v>
+      </c>
+      <c r="G6" t="str">
+        <f>REPT("&lt;valor&gt;"&amp;Tabla4[[#This Row],[x]]&amp;"&lt;/valor&gt;",Tabla4[[#This Row],[f]])</f>
+        <v>&lt;valor&gt;17&lt;/valor&gt;&lt;valor&gt;17&lt;/valor&gt;&lt;valor&gt;17&lt;/valor&gt;&lt;valor&gt;17&lt;/valor&gt;&lt;valor&gt;17&lt;/valor&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <f>SUM(INDEX(Tabla4[f],1):Tabla4[[#This Row],[f]])</f>
+        <v>59</v>
+      </c>
+      <c r="E7">
+        <v>14</v>
+      </c>
+      <c r="G7" t="str">
+        <f>REPT("&lt;valor&gt;"&amp;Tabla4[[#This Row],[x]]&amp;"&lt;/valor&gt;",Tabla4[[#This Row],[f]])</f>
+        <v>&lt;valor&gt;18&lt;/valor&gt;&lt;valor&gt;18&lt;/valor&gt;&lt;valor&gt;18&lt;/valor&gt;&lt;valor&gt;18&lt;/valor&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <f>SUM(INDEX(Tabla4[f],1):Tabla4[[#This Row],[f]])</f>
+        <v>60</v>
+      </c>
+      <c r="E8">
+        <v>14</v>
+      </c>
+      <c r="G8" t="str">
+        <f>REPT("&lt;valor&gt;"&amp;Tabla4[[#This Row],[x]]&amp;"&lt;/valor&gt;",Tabla4[[#This Row],[f]])</f>
+        <v>&lt;valor&gt;19&lt;/valor&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <f>SUBTOTAL(109,Tabla4[f])</f>
+        <v>60</v>
+      </c>
+      <c r="E9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>14</v>
+      </c>
+      <c r="G10" t="str">
+        <f>_xlfn.TEXTJOIN("",TRUE,G2:G8)</f>
+        <v>&lt;valor&gt;13&lt;/valor&gt;&lt;valor&gt;13&lt;/valor&gt;&lt;valor&gt;13&lt;/valor&gt;&lt;valor&gt;14&lt;/valor&gt;&lt;valor&gt;14&lt;/valor&gt;&lt;valor&gt;14&lt;/valor&gt;&lt;valor&gt;14&lt;/valor&gt;&lt;valor&gt;14&lt;/valor&gt;&lt;valor&gt;14&lt;/valor&gt;&lt;valor&gt;14&lt;/valor&gt;&lt;valor&gt;14&lt;/valor&gt;&lt;valor&gt;14&lt;/valor&gt;&lt;valor&gt;14&lt;/valor&gt;&lt;valor&gt;14&lt;/valor&gt;&lt;valor&gt;14&lt;/valor&gt;&lt;valor&gt;14&lt;/valor&gt;&lt;valor&gt;14&lt;/valor&gt;&lt;valor&gt;15&lt;/valor&gt;&lt;valor&gt;15&lt;/valor&gt;&lt;valor&gt;15&lt;/valor&gt;&lt;valor&gt;15&lt;/valor&gt;&lt;valor&gt;15&lt;/valor&gt;&lt;valor&gt;15&lt;/valor&gt;&lt;valor&gt;15&lt;/valor&gt;&lt;valor&gt;15&lt;/valor&gt;&lt;valor&gt;15&lt;/valor&gt;&lt;valor&gt;15&lt;/valor&gt;&lt;valor&gt;15&lt;/valor&gt;&lt;valor&gt;15&lt;/valor&gt;&lt;valor&gt;15&lt;/valor&gt;&lt;valor&gt;15&lt;/valor&gt;&lt;valor&gt;15&lt;/valor&gt;&lt;valor&gt;15&lt;/valor&gt;&lt;valor&gt;15&lt;/valor&gt;&lt;valor&gt;15&lt;/valor&gt;&lt;valor&gt;15&lt;/valor&gt;&lt;valor&gt;15&lt;/valor&gt;&lt;valor&gt;15&lt;/valor&gt;&lt;valor&gt;15&lt;/valor&gt;&lt;valor&gt;15&lt;/valor&gt;&lt;valor&gt;16&lt;/valor&gt;&lt;valor&gt;16&lt;/valor&gt;&lt;valor&gt;16&lt;/valor&gt;&lt;valor&gt;16&lt;/valor&gt;&lt;valor&gt;16&lt;/valor&gt;&lt;valor&gt;16&lt;/valor&gt;&lt;valor&gt;16&lt;/valor&gt;&lt;valor&gt;16&lt;/valor&gt;&lt;valor&gt;16&lt;/valor&gt;&lt;valor&gt;16&lt;/valor&gt;&lt;valor&gt;17&lt;/valor&gt;&lt;valor&gt;17&lt;/valor&gt;&lt;valor&gt;17&lt;/valor&gt;&lt;valor&gt;17&lt;/valor&gt;&lt;valor&gt;17&lt;/valor&gt;&lt;valor&gt;18&lt;/valor&gt;&lt;valor&gt;18&lt;/valor&gt;&lt;valor&gt;18&lt;/valor&gt;&lt;valor&gt;18&lt;/valor&gt;&lt;valor&gt;19&lt;/valor&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="19">
+        <f>(1*60)/4</f>
+        <v>15</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="21">
+        <v>14</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <f>_xlfn.QUARTILE.INC(_xlfn.ANCHORARRAY(E2),1)</f>
+        <v>14</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <f>(6*60)/10</f>
+        <v>36</v>
+      </c>
+      <c r="E19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20">
+        <v>15</v>
+      </c>
+      <c r="E20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22">
+        <f>(5*60)/100</f>
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23">
+        <v>13</v>
+      </c>
+      <c r="E23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E60">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E61">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2E9B38-D262-4550-AE2C-F2202719950D}">
+  <dimension ref="A1:G36"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1">
+        <f>(1*60)/4</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <f>SUM(INDEX(Tabla5[f],1):Tabla5[[#This Row],[f]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <f>SUM(INDEX(Tabla5[f],1):Tabla5[[#This Row],[f]])</f>
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="1">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1">
+        <f>SUM(INDEX(Tabla5[f],1):Tabla5[[#This Row],[f]])</f>
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <f>SUM(INDEX(Tabla5[f],1):Tabla5[[#This Row],[f]])</f>
+        <v>45</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <f>SUM(INDEX(Tabla5[f],1):Tabla5[[#This Row],[f]])</f>
+        <v>59</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <f>SUM(INDEX(Tabla5[f],1):Tabla5[[#This Row],[f]])</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <f>SUBTOTAL(109,Tabla5[f])</f>
+        <v>60</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <f>40+5*((15-10)/(22-10))</f>
+        <v>42.083333333333336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <f>(3*60)/4</f>
+        <v>45</v>
+      </c>
+      <c r="C10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11">
+        <f>(2*60)/10</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25">
+        <f>40+5*((((2*60)/10)-10)/(22-10))</f>
+        <v>40.833333333333336</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28">
+        <f>(55*60)/100</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36">
+        <f>45+5*((((55*60)/100)-22)/(45-22))</f>
+        <v>47.391304347826086</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E74571F5-6857-40C4-AE83-3D8D7AF7EA09}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <f>SUM(INDEX(Tabla57[f],1):Tabla57[[#This Row],[f]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <f>SUM(INDEX(Tabla57[f],1):Tabla57[[#This Row],[f]])</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="22">
+        <v>25</v>
+      </c>
+      <c r="C4" s="22">
+        <f>SUM(INDEX(Tabla57[f],1):Tabla57[[#This Row],[f]])</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <f>SUM(INDEX(Tabla57[f],1):Tabla57[[#This Row],[f]])</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="16">
+        <v>21</v>
+      </c>
+      <c r="C6" s="16">
+        <f>SUM(INDEX(Tabla57[f],1):Tabla57[[#This Row],[f]])</f>
+        <v>92</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <f>SUM(INDEX(Tabla57[f],1):Tabla57[[#This Row],[f]])</f>
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <f>SUBTOTAL(109,Tabla57[f])</f>
+        <v>100</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10">
+        <f>(3*100)/4</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C11" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="3">
+        <f>40+10*((75-71)/(92-71))</f>
+        <v>41.904761904761905</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/P&E/clase03x2.xlsx
+++ b/P&E/clase03x2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\AP5\P&amp;E\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5360E855-E956-4CA1-A27E-6C493C1B437A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E6B2CA-C3A0-4F05-B747-3C50D8A404F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12210" yWindow="0" windowWidth="8190" windowHeight="10920" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12210" yWindow="0" windowWidth="8190" windowHeight="10920" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Video1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Video3" sheetId="3" r:id="rId3"/>
     <sheet name="Video4" sheetId="4" r:id="rId4"/>
     <sheet name="Video5" sheetId="5" r:id="rId5"/>
+    <sheet name="Video6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="68">
   <si>
     <t>Cuartiles</t>
   </si>
@@ -252,12 +253,45 @@
   <si>
     <t>Q3 (posición)</t>
   </si>
+  <si>
+    <t xml:space="preserve">P40 = </t>
+  </si>
+  <si>
+    <t>P40 (posición)</t>
+  </si>
+  <si>
+    <t>Q1 (p)</t>
+  </si>
+  <si>
+    <t>Li</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>kn/4</t>
+  </si>
+  <si>
+    <t>F(i-1)</t>
+  </si>
+  <si>
+    <t>Fi</t>
+  </si>
+  <si>
+    <t>Q2 =</t>
+  </si>
+  <si>
+    <t>Q3 =</t>
+  </si>
+  <si>
+    <t>← para práctica...</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,6 +341,14 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -417,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -453,11 +495,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -902,8 +948,8 @@
       <xdr:rowOff>80961</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3152775" cy="921214"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -945,6 +991,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1036,7 +1083,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1051,7 +1098,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -1064,7 +1111,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -1078,7 +1125,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -1092,7 +1139,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1106,7 +1153,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -1119,7 +1166,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -1133,7 +1180,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -1145,7 +1192,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -1163,7 +1210,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -1176,7 +1223,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -1190,7 +1237,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -1204,7 +1251,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1218,7 +1265,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -1231,7 +1278,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -1245,7 +1292,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -1257,7 +1304,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -1277,7 +1324,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -1377,7 +1424,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>523874</xdr:colOff>
+      <xdr:colOff>171449</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>71436</xdr:rowOff>
     </xdr:from>
@@ -1397,7 +1444,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2809874" y="71436"/>
+              <a:off x="2543174" y="71436"/>
               <a:ext cx="3152775" cy="921214"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1425,6 +1472,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1516,7 +1564,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1531,7 +1579,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -1544,7 +1592,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -1572,7 +1620,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1586,7 +1634,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -1599,7 +1647,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -1613,7 +1661,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -1625,7 +1673,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -1643,7 +1691,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -1656,7 +1704,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -1670,7 +1718,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -1684,7 +1732,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1698,7 +1746,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -1711,7 +1759,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -1725,7 +1773,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -1737,7 +1785,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -1771,7 +1819,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2809874" y="71436"/>
+              <a:off x="2543174" y="71436"/>
               <a:ext cx="3152775" cy="921214"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1799,6 +1847,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="es-ES" sz="2200" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -1823,11 +1872,469 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>(𝑘𝑛/</a:t>
+                <a:t>(𝑘𝑛/4−𝐹_(𝑖−1))/(𝐹_𝑖−𝐹_(𝑖−1) ))</a:t>
+              </a:r>
+              <a:endParaRPr lang="ax-AR" sz="2200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3152775" cy="921214"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="CuadroTexto 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D46EEDE-2801-400C-BBD1-E5B44901DEF0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="114300"/>
+              <a:ext cx="3152775" cy="921214"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ax-AR" sz="2200" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑄</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑘</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐿</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐴</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:f>
+                              <m:fPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:fPr>
+                              <m:num>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑘𝑛</m:t>
+                                </m:r>
+                              </m:num>
+                              <m:den>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>4</m:t>
+                                </m:r>
+                              </m:den>
+                            </m:f>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝐹</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑖</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>−1</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                          </m:num>
+                          <m:den>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝐹</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑖</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝐹</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑖</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>−1</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                          </m:den>
+                        </m:f>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ax-AR" sz="2200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="CuadroTexto 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D46EEDE-2801-400C-BBD1-E5B44901DEF0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="114300"/>
+              <a:ext cx="3152775" cy="921214"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑄</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ax-AR" sz="2200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑘=𝐿_𝑖+𝐴(</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="es-ES" sz="2200" b="0" i="0">
@@ -1839,31 +2346,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>4</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="es-ES" sz="2200" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>−𝐹_(𝑖−1))/(𝐹_𝑖−𝐹_(𝑖−1) )</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="es-ES" sz="2200" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)</a:t>
+                <a:t>(𝑘𝑛/4−𝐹_(𝑖−1))/(𝐹_𝑖−𝐹_(𝑖−1) ))</a:t>
               </a:r>
               <a:endParaRPr lang="ax-AR" sz="2200"/>
             </a:p>
@@ -1880,7 +2363,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BDF26A71-13B2-48A6-B711-028F9DE8064B}" name="Tabla1" displayName="Tabla1" ref="A6:B17" totalsRowShown="0">
   <autoFilter ref="A6:B17" xr:uid="{BDF26A71-13B2-48A6-B711-028F9DE8064B}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3001B58F-3649-4EDB-94E2-6F4F2277A798}" name="Posición" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{3001B58F-3649-4EDB-94E2-6F4F2277A798}" name="Posición" dataDxfId="6">
       <calculatedColumnFormula array="1">ROW(1:1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{18FC44E8-12D0-4AA2-B715-6F6B4FFFE1B9}" name="Dato"/>
@@ -1893,7 +2376,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{44DE03B1-2B4D-48D8-A92E-7D1BC8A0CB34}" name="Tabla13" displayName="Tabla13" ref="J6:K16" totalsRowShown="0">
   <autoFilter ref="J6:K16" xr:uid="{44DE03B1-2B4D-48D8-A92E-7D1BC8A0CB34}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{2A907E48-D5AC-47A5-9BFE-B93C1BF078FF}" name="Posición" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{2A907E48-D5AC-47A5-9BFE-B93C1BF078FF}" name="Posición" dataDxfId="5">
       <calculatedColumnFormula array="1">ROW(1:1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{D70EFEE6-0F91-45B9-A46A-433702605273}" name="Dato"/>
@@ -1906,7 +2389,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9AF3BF80-1A74-43BE-8B2D-D4740916047E}" name="Tabla3" displayName="Tabla3" ref="A20:C34" totalsRowCount="1">
   <autoFilter ref="A20:C33" xr:uid="{9AF3BF80-1A74-43BE-8B2D-D4740916047E}"/>
   <tableColumns count="3">
-    <tableColumn id="3" xr3:uid="{2135DEA9-60E3-4DA4-8DC6-28E7F93B193F}" name="Posición" totalsRowLabel="Total" dataDxfId="3">
+    <tableColumn id="3" xr3:uid="{2135DEA9-60E3-4DA4-8DC6-28E7F93B193F}" name="Posición" totalsRowLabel="Total" dataDxfId="4">
       <calculatedColumnFormula array="1">ROW(1:1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="1" xr3:uid="{BC4241F9-61C2-4B72-800B-880755159283}" name="Peso" totalsRowFunction="count"/>
@@ -1921,7 +2404,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{0D770518-D342-4775-AAF0-88ABA0C1AC2F}" name="x" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{2AF3709F-FD51-4112-8EF6-A5094092B804}" name="f" totalsRowFunction="sum"/>
-    <tableColumn id="3" xr3:uid="{CB54103B-C6BD-4730-BFFB-75B50A1E88A1}" name="Faa" dataDxfId="2">
+    <tableColumn id="3" xr3:uid="{CB54103B-C6BD-4730-BFFB-75B50A1E88A1}" name="Faa" dataDxfId="3">
       <calculatedColumnFormula>SUM(INDEX(Tabla4[f],1):Tabla4[[#This Row],[f]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1935,7 +2418,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{7CDCD907-8D3C-4218-B13D-4290F6EBDD5E}" name="Edad" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{701EB13E-C8A4-4AB4-AEA6-8DC8EF716E8B}" name="f" totalsRowFunction="sum"/>
-    <tableColumn id="3" xr3:uid="{03614A16-2CEF-4732-8613-E753271D8B9A}" name="Faa" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{03614A16-2CEF-4732-8613-E753271D8B9A}" name="Faa" dataDxfId="2">
       <calculatedColumnFormula>SUM(INDEX(Tabla5[f],1):Tabla5[[#This Row],[f]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1948,8 +2431,22 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{E77DCD78-9B59-41DC-A36C-A54F4580D9FB}" name="Respuestas" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{40153907-FE8F-4A57-9451-40281F6BED4C}" name="f" totalsRowFunction="sum"/>
-    <tableColumn id="3" xr3:uid="{6A4E1C3A-7BF0-436A-9D86-534ED1B4C6AC}" name="Faa" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{6A4E1C3A-7BF0-436A-9D86-534ED1B4C6AC}" name="Faa" dataDxfId="1">
       <calculatedColumnFormula>SUM(INDEX(Tabla57[f],1):Tabla57[[#This Row],[f]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{951DD068-547A-4123-BB85-CA800A747032}" name="Tabla7" displayName="Tabla7" ref="A8:C15" totalsRowCount="1">
+  <autoFilter ref="A8:C14" xr:uid="{951DD068-547A-4123-BB85-CA800A747032}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{84464F80-DE54-4C6B-B487-DFCDEB3BE67E}" name="Edad" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{0BEFB000-024D-41B2-A7E9-5133BF9F8497}" name="f" totalsRowFunction="sum"/>
+    <tableColumn id="3" xr3:uid="{9BF4C950-C98F-41DB-AFB6-3ACC6E84D66C}" name="Faa" dataDxfId="0">
+      <calculatedColumnFormula>SUM(INDEX(Tabla7[f],1):Tabla7[[#This Row],[f]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
@@ -3009,7 +3506,7 @@
   <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3789,15 +4286,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E74571F5-6857-40C4-AE83-3D8D7AF7EA09}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3848,13 +4346,13 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>32</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <f>SUM(INDEX(Tabla57[f],1):Tabla57[[#This Row],[f]])</f>
         <v>71</v>
       </c>
@@ -3937,6 +4435,241 @@
       <c r="F11" s="3">
         <f>40+10*((75-71)/(92-71))</f>
         <v>41.904761904761905</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14">
+        <f>(40*100)/100</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="3">
+        <f>30+10*((40-39)/(71-39))</f>
+        <v>30.3125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F94DB1-759F-4A50-9ABB-995BCAC33696}">
+  <dimension ref="A8:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="3.28515625" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="1">
+        <f>(1*60)/4</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <f>SUM(INDEX(Tabla7[f],1):Tabla7[[#This Row],[f]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <f>SUM(INDEX(Tabla7[f],1):Tabla7[[#This Row],[f]])</f>
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="25">
+        <v>12</v>
+      </c>
+      <c r="C11" s="25">
+        <f>SUM(INDEX(Tabla7[f],1):Tabla7[[#This Row],[f]])</f>
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <f>SUM(INDEX(Tabla7[f],1):Tabla7[[#This Row],[f]])</f>
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <f>SUM(INDEX(Tabla7[f],1):Tabla7[[#This Row],[f]])</f>
+        <v>59</v>
+      </c>
+      <c r="E13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <f>SUM(INDEX(Tabla7[f],1):Tabla7[[#This Row],[f]])</f>
+        <v>60</v>
+      </c>
+      <c r="E14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <f>SUBTOTAL(109,Tabla7[f])</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="3">
+        <f>40+5*((15-10)/(22-10))</f>
+        <v>42.083333333333336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17">
+        <v>46.74</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18">
+        <v>50</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
